--- a/LoginDetailsData.xlsx
+++ b/LoginDetailsData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RobotFramework\Acacium\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RobotFramework\Orange HRM Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4746124-790B-4477-8CA2-FE3A5EFC05CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BC25FB8-B4E6-451B-92C0-8A24ED55BF83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
   <si>
     <t>UserID</t>
   </si>
@@ -77,23 +77,26 @@
     <t>ForeName</t>
   </si>
   <si>
-    <t>shakti.mishra@aaseya.com</t>
-  </si>
-  <si>
-    <t>System@1234</t>
-  </si>
-  <si>
-    <t>kavita.chonkar@aaseya.com</t>
-  </si>
-  <si>
-    <t>test@123</t>
+    <t>standard_user</t>
+  </si>
+  <si>
+    <t>secret_sauce</t>
+  </si>
+  <si>
+    <t>locked_out_user</t>
+  </si>
+  <si>
+    <t>problem_user</t>
+  </si>
+  <si>
+    <t>performance_glitch_user</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -103,25 +106,9 @@
     </font>
     <font>
       <sz val="7"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <color rgb="FF4A4A4A"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="7"/>
-      <color rgb="FF444444"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -141,21 +128,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -434,10 +417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -462,24 +445,36 @@
       <c r="A2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C2" s="1"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="B4" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1" xr:uid="{37771659-155E-49F6-BA95-35C2484C2D0B}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{EE05C289-E6DB-4485-A5AB-DF12C40C10CB}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
